--- a/Output/March/productivity_agent/productivity_agent_2022-03-24.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-24.xlsx
@@ -9692,7 +9692,7 @@
         <v>3222</v>
       </c>
       <c r="N27">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="O27">
         <v>3222</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>317.9310344827586</v>
+        <v>334.4827586206897</v>
       </c>
       <c r="BA27">
         <v>627.6623376623377</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="CL27">
-        <v>0.3740365111561866</v>
+        <v>0.3935091277890467</v>
       </c>
       <c r="CM27">
         <v>0.7845779220779221</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.6662440289340794</v>
+        <v>0.6701746963286475</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>882</v>
+        <v>936</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="AZ31">
-        <v>326.6666666666666</v>
+        <v>346.6666666666666</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="CL31">
-        <v>0.384313725490196</v>
+        <v>0.4078431372549019</v>
       </c>
       <c r="CM31">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="DA31">
-        <v>0.2332862745098039</v>
+        <v>0.2417568627450981</v>
       </c>
     </row>
     <row r="32" spans="1:105">
@@ -11277,7 +11277,7 @@
         <v>1909</v>
       </c>
       <c r="N32">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="O32">
         <v>1906</v>
@@ -11391,7 +11391,7 @@
         <v>3579.375</v>
       </c>
       <c r="AZ32">
-        <v>345.8064516129032</v>
+        <v>361.2903225806451</v>
       </c>
       <c r="BA32">
         <v>628.3516483516484</v>
@@ -11505,7 +11505,7 @@
         <v>0.7717496765847348</v>
       </c>
       <c r="CL32">
-        <v>0.4068311195445921</v>
+        <v>0.4250474383301707</v>
       </c>
       <c r="CM32">
         <v>0.7854395604395604</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="DA32">
-        <v>0.5373156030140056</v>
+        <v>0.5410471396815359</v>
       </c>
     </row>
     <row r="33" spans="1:105">
@@ -18251,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1430</v>
+        <v>1450</v>
       </c>
       <c r="O54">
         <v>405</v>
@@ -18365,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="AZ54">
-        <v>451.578947368421</v>
+        <v>457.8947368421052</v>
       </c>
       <c r="BA54">
         <v>1012.5</v>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="CL54">
-        <v>0.5312693498452011</v>
+        <v>0.5386996904024767</v>
       </c>
       <c r="CM54">
         <v>1.265625</v>
@@ -18524,7 +18524,7 @@
         <v>0.4769874476987447</v>
       </c>
       <c r="DA54">
-        <v>0.541536813400857</v>
+        <v>0.5446532917802882</v>
       </c>
     </row>
     <row r="55" spans="1:105">
@@ -29980,7 +29980,7 @@
         <v>212</v>
       </c>
       <c r="N91">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="O91">
         <v>212</v>
@@ -30094,7 +30094,7 @@
         <v>0</v>
       </c>
       <c r="AZ91">
-        <v>161.0810810810811</v>
+        <v>174.054054054054</v>
       </c>
       <c r="BA91">
         <v>489.2307692307692</v>
@@ -30208,7 +30208,7 @@
         <v>0</v>
       </c>
       <c r="CL91">
-        <v>0.1895071542130365</v>
+        <v>0.2047694753577106</v>
       </c>
       <c r="CM91">
         <v>0.6115384615384616</v>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="DA91">
-        <v>0.3651878532529966</v>
+        <v>0.373744002985617</v>
       </c>
     </row>
     <row r="92" spans="1:105">
@@ -31565,7 +31565,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="AZ96">
-        <v>231.8181818181818</v>
+        <v>238.6363636363636</v>
       </c>
       <c r="BA96">
         <v>0</v>
@@ -31793,7 +31793,7 @@
         <v>0</v>
       </c>
       <c r="CL96">
-        <v>0.2727272727272727</v>
+        <v>0.2807486631016043</v>
       </c>
       <c r="CM96">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>0</v>
       </c>
       <c r="DA96">
-        <v>0.3863087248322147</v>
+        <v>0.3878878799842084</v>
       </c>
     </row>
     <row r="97" spans="1:105">
